--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33634.33</v>
+        <v>37263.31</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11211.44</v>
+        <v>9315.83</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20041.07</v>
+        <v>19605.53</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9747.549999999999</v>
+        <v>9958.08</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3845.71</v>
+        <v>3849.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3849.85</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,65 +439,88 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37263.31</v>
+        <v>19605.53</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19546.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9315.83</v>
+        <v>9958.08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10325.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19605.53</v>
+        <v>3849.85</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3846.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9958.08</v>
+        <v>3849.85</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3846.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3849.85</v>
+        <v>9315.83</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9391.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3849.85</v>
+        <v>37263.31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37565.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,55 +439,75 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33718.91</v>
+        <v>19546.74</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19424.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11239.64</v>
+        <v>10325.78</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10368.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19546.74</v>
+        <v>3846.39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3850.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10325.78</v>
+        <v>11239.64</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11214.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3846.39</v>
+        <v>33718.91</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33643.23</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -454,9 +454,7 @@
       <c r="B2" t="n">
         <v>19546.74</v>
       </c>
-      <c r="C2" t="n">
-        <v>19424.28</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -494,7 +492,7 @@
         <v>11239.64</v>
       </c>
       <c r="C5" t="n">
-        <v>11214.41</v>
+        <v>7109.48</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +505,7 @@
         <v>33718.91</v>
       </c>
       <c r="C6" t="n">
-        <v>33643.23</v>
+        <v>14218.95</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,38 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19546.74</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>20455.42</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20003.29</v>
+      </c>
       <c r="D2" t="n">
-        <v>19471.63</v>
+        <v>19180.93</v>
       </c>
       <c r="E2" t="n">
-        <v>20175.64</v>
+        <v>19983.89</v>
       </c>
       <c r="F2" t="n">
-        <v>20539.57</v>
+        <v>19748.8</v>
       </c>
       <c r="G2" t="n">
-        <v>19581.15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19973.87</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19641.72</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20078.69</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20126.08</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19567.37</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20455.42</v>
+        <v>19941.14</v>
       </c>
     </row>
     <row r="3">
@@ -543,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10325.78</v>
+        <v>10139.29</v>
       </c>
       <c r="C3" t="n">
-        <v>10368.85</v>
+        <v>9880.15</v>
       </c>
       <c r="D3" t="n">
-        <v>9757.01</v>
+        <v>10096.73</v>
       </c>
       <c r="E3" t="n">
-        <v>10429.6</v>
+        <v>9637.790000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>10124.33</v>
+        <v>9826.610000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>9581.209999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9611.27</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9679.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10473.23</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10354.08</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10029.87</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10139.29</v>
+        <v>10381.51</v>
       </c>
     </row>
     <row r="4">
@@ -586,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3846.39</v>
+        <v>3844.82</v>
       </c>
       <c r="C4" t="n">
-        <v>3850.1</v>
+        <v>3675.09</v>
       </c>
       <c r="D4" t="n">
-        <v>3853.38</v>
+        <v>3611.46</v>
       </c>
       <c r="E4" t="n">
-        <v>3852.79</v>
+        <v>3678.1</v>
       </c>
       <c r="F4" t="n">
-        <v>3861.75</v>
+        <v>3676.01</v>
       </c>
       <c r="G4" t="n">
-        <v>3846.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3856.42</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3845.27</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3841.58</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3846.46</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3852.14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3844.82</v>
+        <v>3671.25</v>
       </c>
     </row>
     <row r="5">
@@ -629,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11239.64</v>
+        <v>11479.84</v>
       </c>
       <c r="C5" t="n">
-        <v>7109.48</v>
+        <v>11186.18</v>
       </c>
       <c r="D5" t="n">
-        <v>11027.34</v>
+        <v>10963.04</v>
       </c>
       <c r="E5" t="n">
-        <v>11486.01</v>
+        <v>11099.93</v>
       </c>
       <c r="F5" t="n">
-        <v>11508.55</v>
+        <v>11083.81</v>
       </c>
       <c r="G5" t="n">
-        <v>11002.89</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11147.19</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11055.41</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11464.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11442.21</v>
-      </c>
-      <c r="L5" t="n">
-        <v>11149.79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>11479.84</v>
+        <v>11331.3</v>
       </c>
     </row>
     <row r="6">
@@ -672,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33718.91</v>
+        <v>34439.53</v>
       </c>
       <c r="C6" t="n">
-        <v>14218.95</v>
+        <v>33558.53</v>
       </c>
       <c r="D6" t="n">
-        <v>33082.02</v>
+        <v>32889.12</v>
       </c>
       <c r="E6" t="n">
-        <v>34458.03</v>
+        <v>33299.78</v>
       </c>
       <c r="F6" t="n">
-        <v>34525.65</v>
+        <v>33251.42</v>
       </c>
       <c r="G6" t="n">
-        <v>33008.66</v>
-      </c>
-      <c r="H6" t="n">
-        <v>33441.56</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33166.24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>34393.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>34326.62</v>
-      </c>
-      <c r="L6" t="n">
-        <v>33449.38</v>
-      </c>
-      <c r="M6" t="n">
-        <v>34439.53</v>
+        <v>33993.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,38 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>19546.74</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>19471.63</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20175.64</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20539.57</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19581.15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19973.87</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19641.72</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20078.69</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20126.08</v>
+      </c>
+      <c r="L2" t="n">
+        <v>19567.37</v>
+      </c>
+      <c r="M2" t="n">
         <v>20455.42</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20003.29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19180.93</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19983.89</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19748.8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19941.14</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +543,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>10325.78</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10368.85</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9757.01</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10429.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10124.33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9581.209999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9611.27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9679.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10473.23</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10354.08</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10029.87</v>
+      </c>
+      <c r="M3" t="n">
         <v>10139.29</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9880.15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10096.73</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9637.790000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9826.610000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10381.51</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +586,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3846.39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3850.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3853.38</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3852.79</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3861.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3846.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3856.42</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3845.27</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3841.58</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3846.46</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3852.14</v>
+      </c>
+      <c r="M4" t="n">
         <v>3844.82</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3675.09</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3611.46</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3678.1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3676.01</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3671.25</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +629,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>11239.64</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7109.48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11027.34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11486.01</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11508.55</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11002.89</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11147.19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11055.41</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11464.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11442.21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11149.79</v>
+      </c>
+      <c r="M5" t="n">
         <v>11479.84</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11186.18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10963.04</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11099.93</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11083.81</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11331.3</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +672,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>33718.91</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14218.95</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33082.02</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34458.03</v>
+      </c>
+      <c r="F6" t="n">
+        <v>34525.65</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33008.66</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33441.56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>33166.24</v>
+      </c>
+      <c r="J6" t="n">
+        <v>34393.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>34326.62</v>
+      </c>
+      <c r="L6" t="n">
+        <v>33449.38</v>
+      </c>
+      <c r="M6" t="n">
         <v>34439.53</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33558.53</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32889.12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33299.78</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33251.42</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33993.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,38 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19546.74</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>20455.42</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20003.29</v>
+      </c>
       <c r="D2" t="n">
-        <v>19471.63</v>
+        <v>19180.93</v>
       </c>
       <c r="E2" t="n">
-        <v>20175.64</v>
+        <v>19983.89</v>
       </c>
       <c r="F2" t="n">
-        <v>20539.57</v>
+        <v>19748.8</v>
       </c>
       <c r="G2" t="n">
-        <v>19581.15</v>
+        <v>19941.14</v>
       </c>
       <c r="H2" t="n">
-        <v>19973.87</v>
+        <v>20449.61</v>
       </c>
       <c r="I2" t="n">
-        <v>19641.72</v>
+        <v>20344.62</v>
       </c>
       <c r="J2" t="n">
-        <v>20078.69</v>
+        <v>20108.48</v>
       </c>
       <c r="K2" t="n">
-        <v>20126.08</v>
+        <v>19245.59</v>
       </c>
       <c r="L2" t="n">
-        <v>19567.37</v>
+        <v>19685.75</v>
       </c>
       <c r="M2" t="n">
-        <v>20455.42</v>
+        <v>19726.17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19636.52</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20075.92</v>
+      </c>
+      <c r="P2" t="n">
+        <v>19274.04</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>19830.28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>19331.52</v>
+      </c>
+      <c r="S2" t="n">
+        <v>19606.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>18978.04</v>
+      </c>
+      <c r="U2" t="n">
+        <v>19051.54</v>
+      </c>
+      <c r="V2" t="n">
+        <v>19431.68</v>
+      </c>
+      <c r="W2" t="n">
+        <v>21597.94</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19173.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>21228.87</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21621.83</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>20638.98</v>
       </c>
     </row>
     <row r="3">
@@ -543,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10325.78</v>
+        <v>10139.29</v>
       </c>
       <c r="C3" t="n">
-        <v>10368.85</v>
+        <v>9880.15</v>
       </c>
       <c r="D3" t="n">
-        <v>9757.01</v>
+        <v>10096.73</v>
       </c>
       <c r="E3" t="n">
-        <v>10429.6</v>
+        <v>9637.790000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>10124.33</v>
+        <v>9826.610000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>9581.209999999999</v>
+        <v>10381.51</v>
       </c>
       <c r="H3" t="n">
-        <v>9611.27</v>
+        <v>9974.18</v>
       </c>
       <c r="I3" t="n">
-        <v>9679.25</v>
+        <v>10340.23</v>
       </c>
       <c r="J3" t="n">
-        <v>10473.23</v>
+        <v>9794.780000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>10354.08</v>
+        <v>10452.55</v>
       </c>
       <c r="L3" t="n">
-        <v>10029.87</v>
+        <v>9569.860000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>10139.29</v>
+        <v>10061.83</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9929.110000000001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10162.84</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9587.68</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9675.77</v>
+      </c>
+      <c r="R3" t="n">
+        <v>9388.440000000001</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9439.889999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>9315.610000000001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9326.35</v>
+      </c>
+      <c r="V3" t="n">
+        <v>10725.63</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10095.99</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10682.01</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10761.48</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10453.03</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>10562.64</v>
       </c>
     </row>
     <row r="4">
@@ -586,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3846.39</v>
+        <v>3844.82</v>
       </c>
       <c r="C4" t="n">
-        <v>3850.1</v>
+        <v>3675.09</v>
       </c>
       <c r="D4" t="n">
-        <v>3853.38</v>
+        <v>3611.46</v>
       </c>
       <c r="E4" t="n">
-        <v>3852.79</v>
+        <v>3678.1</v>
       </c>
       <c r="F4" t="n">
-        <v>3861.75</v>
+        <v>3676.01</v>
       </c>
       <c r="G4" t="n">
-        <v>3846.3</v>
+        <v>3671.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3856.42</v>
+        <v>3669.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3845.27</v>
+        <v>3664.99</v>
       </c>
       <c r="J4" t="n">
-        <v>3841.58</v>
+        <v>3669.46</v>
       </c>
       <c r="K4" t="n">
-        <v>3846.46</v>
+        <v>3670.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3852.14</v>
+        <v>3676.12</v>
       </c>
       <c r="M4" t="n">
-        <v>3844.82</v>
+        <v>3685.82</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3674.32</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3675.68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3684.87</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3665.38</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3678.65</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3668.71</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3651.57</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3662.4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3671.11</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3691.28</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3482.97</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3468.52</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3470.47</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>3470.91</v>
       </c>
     </row>
     <row r="5">
@@ -629,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11239.64</v>
+        <v>11479.84</v>
       </c>
       <c r="C5" t="n">
-        <v>7109.48</v>
+        <v>11186.18</v>
       </c>
       <c r="D5" t="n">
-        <v>11027.34</v>
+        <v>10963.04</v>
       </c>
       <c r="E5" t="n">
-        <v>11486.01</v>
+        <v>11099.93</v>
       </c>
       <c r="F5" t="n">
-        <v>11508.55</v>
+        <v>11083.81</v>
       </c>
       <c r="G5" t="n">
-        <v>11002.89</v>
+        <v>11331.3</v>
       </c>
       <c r="H5" t="n">
-        <v>11147.19</v>
+        <v>11364.36</v>
       </c>
       <c r="I5" t="n">
-        <v>11055.41</v>
+        <v>11449.95</v>
       </c>
       <c r="J5" t="n">
-        <v>11464.5</v>
+        <v>11190.91</v>
       </c>
       <c r="K5" t="n">
-        <v>11442.21</v>
+        <v>11122.81</v>
       </c>
       <c r="L5" t="n">
-        <v>11149.79</v>
+        <v>10977.24</v>
       </c>
       <c r="M5" t="n">
-        <v>11479.84</v>
+        <v>11157.94</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11079.98</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11304.81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10848.86</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>11057.14</v>
+      </c>
+      <c r="R5" t="n">
+        <v>10799.54</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10905.01</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10648.41</v>
+      </c>
+      <c r="U5" t="n">
+        <v>10680.1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>11276.14</v>
+      </c>
+      <c r="W5" t="n">
+        <v>11795.07</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11112.69</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11819.62</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11848.44</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11557.51</v>
       </c>
     </row>
     <row r="6">
@@ -672,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33718.91</v>
+        <v>34439.53</v>
       </c>
       <c r="C6" t="n">
-        <v>14218.95</v>
+        <v>33558.53</v>
       </c>
       <c r="D6" t="n">
-        <v>33082.02</v>
+        <v>32889.12</v>
       </c>
       <c r="E6" t="n">
-        <v>34458.03</v>
+        <v>33299.78</v>
       </c>
       <c r="F6" t="n">
-        <v>34525.65</v>
+        <v>33251.42</v>
       </c>
       <c r="G6" t="n">
-        <v>33008.66</v>
+        <v>33993.9</v>
       </c>
       <c r="H6" t="n">
-        <v>33441.56</v>
+        <v>34093.09</v>
       </c>
       <c r="I6" t="n">
-        <v>33166.24</v>
+        <v>34349.84</v>
       </c>
       <c r="J6" t="n">
-        <v>34393.5</v>
+        <v>33572.72</v>
       </c>
       <c r="K6" t="n">
-        <v>34326.62</v>
+        <v>33368.44</v>
       </c>
       <c r="L6" t="n">
-        <v>33449.38</v>
+        <v>32931.73</v>
       </c>
       <c r="M6" t="n">
-        <v>34439.53</v>
+        <v>33473.82</v>
+      </c>
+      <c r="N6" t="n">
+        <v>33239.95</v>
+      </c>
+      <c r="O6" t="n">
+        <v>33914.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>32546.59</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>33171.43</v>
+      </c>
+      <c r="R6" t="n">
+        <v>32398.61</v>
+      </c>
+      <c r="S6" t="n">
+        <v>32715.04</v>
+      </c>
+      <c r="T6" t="n">
+        <v>31945.22</v>
+      </c>
+      <c r="U6" t="n">
+        <v>32040.29</v>
+      </c>
+      <c r="V6" t="n">
+        <v>33828.42</v>
+      </c>
+      <c r="W6" t="n">
+        <v>35385.21</v>
+      </c>
+      <c r="X6" t="n">
+        <v>33338.08</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>35458.87</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>35545.33</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34672.53</v>
       </c>
     </row>
   </sheetData>
